--- a/OptiMill områdedata.xlsx
+++ b/OptiMill områdedata.xlsx
@@ -1,12 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johan/GitHub/Vindenergi/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B550A84B-EB1D-C04E-8334-97CA1CBF6A1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -121,9 +141,6 @@
     <t>Saltholm</t>
   </si>
   <si>
-    <t>Sjaelands odde</t>
-  </si>
-  <si>
     <t>Laesoe</t>
   </si>
   <si>
@@ -131,19 +148,23 @@
   </si>
   <si>
     <t>Lolland</t>
+  </si>
+  <si>
+    <t>Sjaellands odde</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -153,38 +174,45 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -374,31 +402,36 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:I26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="4.0"/>
-    <col customWidth="1" min="2" max="2" width="15.29"/>
-    <col customWidth="1" min="3" max="3" width="16.0"/>
-    <col customWidth="1" min="4" max="4" width="12.71"/>
-    <col customWidth="1" min="5" max="5" width="7.43"/>
-    <col customWidth="1" min="6" max="6" width="14.29"/>
-    <col customWidth="1" min="7" max="7" width="10.57"/>
-    <col customWidth="1" min="8" max="8" width="17.14"/>
-    <col customWidth="1" min="9" max="9" width="20.14"/>
+    <col min="1" max="1" width="4" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="7.5" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" customWidth="1"/>
+    <col min="7" max="7" width="10.5" customWidth="1"/>
+    <col min="8" max="8" width="17.1640625" customWidth="1"/>
+    <col min="9" max="9" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -406,10 +439,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -427,782 +460,782 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="2">
-        <v>5.1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="2">
-        <v>0.0</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="E2" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F2" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G2" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H2" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="L2" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="1">
-        <v>5.0</v>
+        <v>2</v>
       </c>
       <c r="D3" s="1">
-        <v>2.0</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G3" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H3" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I3" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="L3" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.0</v>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>5</v>
       </c>
       <c r="E4" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F4" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="G4" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H4" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="L4" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>2.0</v>
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>6</v>
       </c>
       <c r="E5" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F5" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G5" s="2">
         <v>0.5</v>
       </c>
       <c r="H5" s="2">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="I5" s="2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="L5" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0.0</v>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>9</v>
       </c>
       <c r="E6" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H6" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I6" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="L6" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>3.0</v>
+      <c r="C7" s="2">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1">
+        <v>9</v>
       </c>
       <c r="E7" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H7" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I7" s="1">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1.0</v>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>5</v>
       </c>
       <c r="E8" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F8" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="G8" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H8" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I8" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
         <v>5.5</v>
       </c>
-      <c r="D9" s="2">
-        <v>0.0</v>
-      </c>
       <c r="E9" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F9" s="2">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="G9" s="2">
         <v>0.5</v>
       </c>
       <c r="H9" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I9" s="2">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="2">
+        <v>4</v>
+      </c>
+      <c r="D10" s="2">
         <v>3.3</v>
       </c>
-      <c r="D10" s="2">
-        <v>4.0</v>
-      </c>
       <c r="E10" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>43.0</v>
+        <v>43</v>
       </c>
       <c r="G10" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I10" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="2">
-        <v>4.6</v>
+        <v>1</v>
       </c>
       <c r="D11" s="2">
-        <v>1.0</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="E11" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F11" s="2">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="G11" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H11" s="2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="I11" s="2">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="1">
-        <v>10.0</v>
+        <v>2</v>
       </c>
       <c r="D12" s="1">
-        <v>2.0</v>
+        <v>10</v>
       </c>
       <c r="E12" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H12" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I12" s="1">
-        <v>75.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="1">
-        <v>10.0</v>
+        <v>2</v>
       </c>
       <c r="D13" s="1">
-        <v>2.0</v>
+        <v>10</v>
       </c>
       <c r="E13" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H13" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I13" s="1">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C14" s="1">
-        <v>10.0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="1">
-        <v>1.0</v>
+        <v>10</v>
       </c>
       <c r="E14" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F14" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I14" s="1">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C15" s="1">
-        <v>6.0</v>
+        <v>1</v>
       </c>
       <c r="D15" s="1">
-        <v>1.0</v>
+        <v>6</v>
       </c>
       <c r="E15" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="G15" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H15" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="I15" s="1">
-        <v>85.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C16" s="1">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="D16" s="1">
-        <v>4.0</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E16" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="G16" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H16" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I16" s="1">
         <v>12.5</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
         <v>5.5</v>
       </c>
-      <c r="D17" s="1">
-        <v>1.0</v>
-      </c>
       <c r="E17" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="G17" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H17" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="I17" s="1">
-        <v>90.0</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
-        <f t="shared" ref="A18:A25" si="1">A17+1</f>
+        <f t="shared" ref="A18:A25" si="0">A17+1</f>
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C18" s="1">
+        <v>4</v>
+      </c>
+      <c r="D18" s="1">
         <v>6.3</v>
       </c>
-      <c r="D18" s="1">
-        <v>4.0</v>
-      </c>
       <c r="E18" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="G18" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H18" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I18" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C19" s="1">
-        <v>4.9</v>
+        <v>3</v>
       </c>
       <c r="D19" s="1">
-        <v>3.0</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="E19" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="G19" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H19" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="I19" s="1">
-        <v>40.0</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C20" s="1">
-        <v>8.0</v>
+        <v>3</v>
       </c>
       <c r="D20" s="1">
-        <v>3.0</v>
+        <v>8</v>
       </c>
       <c r="E20" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F20" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G20" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H20" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I20" s="1">
-        <v>50.0</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C21" s="1">
+        <v>3</v>
+      </c>
+      <c r="D21" s="1">
         <v>4.7</v>
       </c>
-      <c r="D21" s="1">
-        <v>3.0</v>
-      </c>
       <c r="E21" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="G21" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H21" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I21" s="1">
-        <v>50.0</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C22" s="1">
-        <v>6.0</v>
+        <v>0</v>
       </c>
       <c r="D22" s="1">
-        <v>0.0</v>
+        <v>6</v>
       </c>
       <c r="E22" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G22" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H22" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I22" s="1">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="1">
+        <v>4</v>
+      </c>
+      <c r="D23" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>10</v>
+      </c>
+      <c r="I23" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="3">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="1">
-        <v>8.5</v>
-      </c>
-      <c r="D23" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="E23" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="F23" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G23" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="H23" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="I23" s="1">
-        <v>55.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="3">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="1">
+        <v>6.7</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>7</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="3">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="1">
-        <v>6.7</v>
-      </c>
-      <c r="D24" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="E24" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="F24" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="G24" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="H24" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="3">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" s="1">
+        <v>4</v>
+      </c>
+      <c r="D25" s="1">
+        <v>6</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
+        <v>5</v>
+      </c>
+      <c r="G25" s="1">
+        <v>2</v>
+      </c>
+      <c r="H25" s="1">
+        <v>2</v>
+      </c>
+      <c r="I25" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="D25" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="E25" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="F25" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="G25" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="H25" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="I25" s="1">
-        <v>85.0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1">
-        <v>25.0</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="C26" s="1">
+        <v>4</v>
+      </c>
+      <c r="D26" s="1">
         <v>5.2</v>
       </c>
-      <c r="D26" s="1">
-        <v>4.0</v>
-      </c>
       <c r="E26" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G26" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H26" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I26" s="1">
-        <v>80.0</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>